--- a/Document/02. Design/02. DetailDesign/Detail_Design_Confirm_Import_UV.xlsx
+++ b/Document/02. Design/02. DetailDesign/Detail_Design_Confirm_Import_UV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6362DA03-66B6-4895-B92F-680A40E1AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEDC01C-5B10-4651-84CE-C0BCC3265EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD9EEB88-A6EF-4B9E-8450-A57955C100E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD9EEB88-A6EF-4B9E-8450-A57955C100E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirm Import UV Screen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>i10</t>
   </si>
@@ -229,13 +229,115 @@
   </si>
   <si>
     <t>Kiểu</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>Candidate</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Giải thích</t>
+  </si>
+  <si>
+    <t>Input vào API</t>
+  </si>
+  <si>
+    <t>Đẩy lên các &lt;input/&gt;</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Output từ API</t>
+  </si>
+  <si>
+    <t>Status kết quả xử lý</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status kết quả xử lý được trả về từ API</t>
+  </si>
+  <si>
+    <t>message lỗi</t>
+  </si>
+  <si>
+    <t>arrat</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Nhóm error message được trả về từ API</t>
+  </si>
+  <si>
+    <t>Hiển thị khởi tạo</t>
+  </si>
+  <si>
+    <t>Chuyển - hiển thị component khác</t>
+  </si>
+  <si>
+    <t>a01</t>
+  </si>
+  <si>
+    <t>a02</t>
+  </si>
+  <si>
+    <t>a03</t>
+  </si>
+  <si>
+    <t>a04</t>
+  </si>
+  <si>
+    <t>a05</t>
+  </si>
+  <si>
+    <t>a06</t>
+  </si>
+  <si>
+    <t>a07</t>
+  </si>
+  <si>
+    <t>Nhập Ứng Viên</t>
+  </si>
+  <si>
+    <t>Duyệt Ứng Viên</t>
+  </si>
+  <si>
+    <t>Liện Hệ Ứng Viên</t>
+  </si>
+  <si>
+    <t>Gửi Mail Cho Ứng Viên</t>
+  </si>
+  <si>
+    <t>Nhập Thông Tin PV</t>
+  </si>
+  <si>
+    <t>Đánh Giá Ứng Viên</t>
+  </si>
+  <si>
+    <t>Gửi KQ-Cập Nhật Trạng Thái</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +368,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +407,24 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -313,48 +451,45 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -362,28 +497,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,17 +538,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1143968</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67216</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258458</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2268E299-34A3-D4DA-4308-6929BDC6A444}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A4A89B-9936-7269-0A22-4DCABCB76AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -436,7 +565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6935168" cy="3877216"/>
+          <a:ext cx="7792733" cy="4651414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -496,23 +625,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381921</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>133900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38888</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>115030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CF805A-208B-8265-9FC8-37BBFA2B4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAF7CD8-D31C-ED44-1554-814D5E698B4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,8 +657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="10668000"/>
-          <a:ext cx="6601746" cy="3943900"/>
+          <a:off x="0" y="15649575"/>
+          <a:ext cx="5649113" cy="5229955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -540,23 +669,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38888</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>86455</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1058461</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>67397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAF7CD8-D31C-ED44-1554-814D5E698B4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8EEE49-71D2-2B58-5EA9-7E0537166A68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -572,8 +701,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="14859000"/>
-          <a:ext cx="5649113" cy="5229955"/>
+          <a:off x="0" y="10515600"/>
+          <a:ext cx="8497486" cy="5172797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,16 +1011,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0CCFFB-6E4D-44F2-9E4D-0800DB09BA6F}">
-  <dimension ref="A22:O32"/>
+  <dimension ref="A27:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -905,212 +1034,65 @@
     <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>50</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1">
-        <v>3</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <v>5</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1120,7 +1102,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1130,16 +1112,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1149,7 +1131,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1159,26 +1141,28 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>50</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1188,16 +1172,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1207,28 +1191,26 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1238,17 +1220,385 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1">
-        <v>2</v>
-      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
+        <v>3</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
+        <v>3</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1256,34 +1606,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675903DE-6026-4B21-9669-6C3D098AF795}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1298,116 +1653,120 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -1416,171 +1775,212 @@
       <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="59" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K59" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K61" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="L61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K62" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="14"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="65" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K65" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K66" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
@@ -1588,11 +1988,11 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
@@ -1600,6 +2000,11 @@
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
